--- a/Datasett/badeplasser-i-gjesdal-kommune.xlsx
+++ b/Datasett/badeplasser-i-gjesdal-kommune.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\oblig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A303949E-81AD-4E31-863B-A8638A90DA47}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="badeplasser-i-gjesdal-kommune" sheetId="1" r:id="rId1"/>
@@ -51,9 +52,6 @@
     <t>58.76355133</t>
   </si>
   <si>
-    <t>Edlandshagen - PerlÃ¥</t>
-  </si>
-  <si>
     <t>Offentlig</t>
   </si>
   <si>
@@ -102,9 +100,6 @@
     <t>58.76832936</t>
   </si>
   <si>
-    <t>RaudvigÃ¥</t>
-  </si>
-  <si>
     <t>6520081.13</t>
   </si>
   <si>
@@ -118,12 +113,18 @@
   </si>
   <si>
     <t>Flassavatnet</t>
+  </si>
+  <si>
+    <t>Edlandshagen - Perlå</t>
+  </si>
+  <si>
+    <t>Raudvigå</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -957,16 +958,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1000,90 +1001,90 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
